--- a/REGULAR/RE-ENCODE/PETIL, GLENDA.xlsx
+++ b/REGULAR/RE-ENCODE/PETIL, GLENDA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20CE04A-483A-4A7C-9C77-D7D4C7367D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="96">
   <si>
     <t>PERIOD</t>
   </si>
@@ -319,12 +318,15 @@
   </si>
   <si>
     <t>3/8,10/2023</t>
+  </si>
+  <si>
+    <t>5/15,16/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1020,25 +1022,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K159" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K159" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1345,34 +1347,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A109" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A107" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B112" sqref="B112"/>
+      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1393,7 +1395,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1411,7 +1413,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1433,7 +1435,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1441,7 +1443,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1454,7 +1456,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1471,7 +1473,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1506,7 +1508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1515,7 +1517,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>173.96199999999999</v>
+        <v>173.21199999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1525,12 +1527,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>199.5</v>
+        <v>200.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1552,7 +1554,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1578,7 +1580,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1604,7 +1606,7 @@
         <v>43154</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>45</v>
@@ -1623,7 +1625,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -1649,7 +1651,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>47</v>
@@ -1666,7 +1668,7 @@
         <v>43182</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43191</v>
       </c>
@@ -1692,7 +1694,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>49</v>
@@ -1711,7 +1713,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43221</v>
       </c>
@@ -1737,7 +1739,7 @@
         <v>43241</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>47</v>
@@ -1754,7 +1756,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
@@ -1773,7 +1775,7 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>50</v>
@@ -1792,7 +1794,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43252</v>
       </c>
@@ -1812,7 +1814,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43282</v>
       </c>
@@ -1838,7 +1840,7 @@
         <v>43299</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43313</v>
       </c>
@@ -1864,7 +1866,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43344</v>
       </c>
@@ -1884,7 +1886,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43374</v>
       </c>
@@ -1910,7 +1912,7 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43405</v>
       </c>
@@ -1930,7 +1932,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43435</v>
       </c>
@@ -1956,7 +1958,7 @@
         <v>43438</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>57</v>
@@ -1978,7 +1980,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>60</v>
       </c>
@@ -1996,7 +1998,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43466</v>
       </c>
@@ -2022,7 +2024,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>61</v>
@@ -2041,7 +2043,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43497</v>
       </c>
@@ -2067,7 +2069,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>47</v>
@@ -2084,7 +2086,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43525</v>
       </c>
@@ -2110,7 +2112,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43556</v>
       </c>
@@ -2130,7 +2132,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43586</v>
       </c>
@@ -2154,7 +2156,7 @@
         <v>43599</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>48</v>
@@ -2173,7 +2175,7 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>57</v>
@@ -2192,7 +2194,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>48</v>
@@ -2211,7 +2213,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>48</v>
@@ -2230,7 +2232,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>48</v>
@@ -2249,7 +2251,7 @@
         <v>43609</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43617</v>
       </c>
@@ -2275,7 +2277,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43647</v>
       </c>
@@ -2301,7 +2303,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>48</v>
@@ -2320,7 +2322,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>48</v>
@@ -2339,7 +2341,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43678</v>
       </c>
@@ -2359,7 +2361,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>43709</v>
       </c>
@@ -2379,7 +2381,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43739</v>
       </c>
@@ -2405,7 +2407,7 @@
         <v>43742</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>43770</v>
       </c>
@@ -2431,7 +2433,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>43800</v>
       </c>
@@ -2457,7 +2459,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>45</v>
@@ -2479,7 +2481,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>50</v>
@@ -2501,7 +2503,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
         <v>67</v>
       </c>
@@ -2519,7 +2521,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>43831</v>
       </c>
@@ -2545,7 +2547,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>68</v>
@@ -2562,7 +2564,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>43862</v>
       </c>
@@ -2586,7 +2588,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>43891</v>
       </c>
@@ -2606,7 +2608,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>43922</v>
       </c>
@@ -2626,7 +2628,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>43952</v>
       </c>
@@ -2646,7 +2648,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>43983</v>
       </c>
@@ -2670,7 +2672,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44013</v>
       </c>
@@ -2696,7 +2698,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44044</v>
       </c>
@@ -2722,7 +2724,7 @@
         <v>44062</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44075</v>
       </c>
@@ -2748,7 +2750,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>70</v>
@@ -2767,7 +2769,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>70</v>
@@ -2786,7 +2788,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>48</v>
@@ -2805,7 +2807,7 @@
         <v>44117</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44105</v>
       </c>
@@ -2825,7 +2827,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44136</v>
       </c>
@@ -2851,7 +2853,7 @@
         <v>44169</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>50</v>
@@ -2870,7 +2872,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44166</v>
       </c>
@@ -2890,7 +2892,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>75</v>
       </c>
@@ -2908,7 +2910,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44197</v>
       </c>
@@ -2934,7 +2936,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44228</v>
       </c>
@@ -2954,7 +2956,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44256</v>
       </c>
@@ -2978,7 +2980,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44287</v>
       </c>
@@ -2998,7 +3000,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44317</v>
       </c>
@@ -3018,7 +3020,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44348</v>
       </c>
@@ -3042,7 +3044,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44378</v>
       </c>
@@ -3062,7 +3064,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44409</v>
       </c>
@@ -3082,7 +3084,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44440</v>
       </c>
@@ -3102,7 +3104,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44470</v>
       </c>
@@ -3122,7 +3124,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44501</v>
       </c>
@@ -3142,7 +3144,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44531</v>
       </c>
@@ -3168,7 +3170,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
         <v>78</v>
       </c>
@@ -3186,7 +3188,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44562</v>
       </c>
@@ -3212,7 +3214,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44593</v>
       </c>
@@ -3238,7 +3240,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>48</v>
@@ -3257,7 +3259,7 @@
         <v>44606</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>70</v>
@@ -3276,7 +3278,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>47</v>
@@ -3293,7 +3295,7 @@
         <v>44642</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44621</v>
       </c>
@@ -3319,7 +3321,7 @@
         <v>44629</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44652</v>
       </c>
@@ -3339,7 +3341,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44682</v>
       </c>
@@ -3365,7 +3367,7 @@
         <v>44694</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>48</v>
@@ -3384,7 +3386,7 @@
         <v>44697</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>48</v>
@@ -3403,7 +3405,7 @@
         <v>44715</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44713</v>
       </c>
@@ -3429,7 +3431,7 @@
         <v>44725</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>47</v>
@@ -3446,7 +3448,7 @@
         <v>44746</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>44743</v>
       </c>
@@ -3472,7 +3474,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>44774</v>
       </c>
@@ -3498,7 +3500,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>44805</v>
       </c>
@@ -3524,7 +3526,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>44835</v>
       </c>
@@ -3550,7 +3552,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>48</v>
@@ -3572,7 +3574,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>44866</v>
       </c>
@@ -3598,7 +3600,7 @@
         <v>44869</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>44896</v>
       </c>
@@ -3624,7 +3626,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>87</v>
@@ -3646,7 +3648,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
         <v>89</v>
       </c>
@@ -3664,7 +3666,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>44927</v>
       </c>
@@ -3690,7 +3692,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f>EDATE(A107,1)</f>
         <v>44958</v>
@@ -3717,7 +3719,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" ref="A109:A156" si="0">EDATE(A108,1)</f>
         <v>44986</v>
@@ -3744,7 +3746,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>45</v>
@@ -3766,7 +3768,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>47</v>
@@ -3786,33 +3788,39 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f>EDATE(A109,1)</f>
         <v>45017</v>
       </c>
       <c r="B112" s="20"/>
-      <c r="C112" s="13"/>
+      <c r="C112" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D112" s="39"/>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G112" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="0"/>
         <v>45047</v>
       </c>
-      <c r="B113" s="20"/>
+      <c r="B113" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C113" s="13"/>
-      <c r="D113" s="39"/>
+      <c r="D113" s="39">
+        <v>2</v>
+      </c>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
       <c r="G113" s="13" t="str">
@@ -3822,9 +3830,11 @@
       <c r="H113" s="39"/>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K113" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f t="shared" si="0"/>
         <v>45078</v>
@@ -3843,7 +3853,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f t="shared" si="0"/>
         <v>45108</v>
@@ -3862,7 +3872,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="0"/>
         <v>45139</v>
@@ -3881,7 +3891,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="0"/>
         <v>45170</v>
@@ -3900,7 +3910,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" si="0"/>
         <v>45200</v>
@@ -3919,7 +3929,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="0"/>
         <v>45231</v>
@@ -3938,7 +3948,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="0"/>
         <v>45261</v>
@@ -3957,7 +3967,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="0"/>
         <v>45292</v>
@@ -3976,7 +3986,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="0"/>
         <v>45323</v>
@@ -3995,7 +4005,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="0"/>
         <v>45352</v>
@@ -4014,7 +4024,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="0"/>
         <v>45383</v>
@@ -4033,7 +4043,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="0"/>
         <v>45413</v>
@@ -4052,7 +4062,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f t="shared" si="0"/>
         <v>45444</v>
@@ -4071,7 +4081,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="0"/>
         <v>45474</v>
@@ -4090,7 +4100,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f t="shared" si="0"/>
         <v>45505</v>
@@ -4109,7 +4119,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="0"/>
         <v>45536</v>
@@ -4128,7 +4138,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f t="shared" si="0"/>
         <v>45566</v>
@@ -4147,7 +4157,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" si="0"/>
         <v>45597</v>
@@ -4166,7 +4176,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="0"/>
         <v>45627</v>
@@ -4185,7 +4195,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="0"/>
         <v>45658</v>
@@ -4204,7 +4214,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f t="shared" si="0"/>
         <v>45689</v>
@@ -4223,7 +4233,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f t="shared" si="0"/>
         <v>45717</v>
@@ -4242,7 +4252,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f t="shared" si="0"/>
         <v>45748</v>
@@ -4261,7 +4271,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" si="0"/>
         <v>45778</v>
@@ -4280,7 +4290,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" si="0"/>
         <v>45809</v>
@@ -4299,7 +4309,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" si="0"/>
         <v>45839</v>
@@ -4318,7 +4328,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="0"/>
         <v>45870</v>
@@ -4337,7 +4347,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f t="shared" si="0"/>
         <v>45901</v>
@@ -4356,7 +4366,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f t="shared" si="0"/>
         <v>45931</v>
@@ -4375,7 +4385,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="0"/>
         <v>45962</v>
@@ -4394,7 +4404,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="0"/>
         <v>45992</v>
@@ -4413,7 +4423,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="0"/>
         <v>46023</v>
@@ -4432,7 +4442,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="0"/>
         <v>46054</v>
@@ -4451,7 +4461,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f t="shared" si="0"/>
         <v>46082</v>
@@ -4470,7 +4480,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="0"/>
         <v>46113</v>
@@ -4489,7 +4499,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="0"/>
         <v>46143</v>
@@ -4508,7 +4518,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f t="shared" si="0"/>
         <v>46174</v>
@@ -4527,7 +4537,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f t="shared" si="0"/>
         <v>46204</v>
@@ -4546,7 +4556,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f t="shared" si="0"/>
         <v>46235</v>
@@ -4565,7 +4575,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f t="shared" si="0"/>
         <v>46266</v>
@@ -4584,7 +4594,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f t="shared" si="0"/>
         <v>46296</v>
@@ -4603,7 +4613,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f t="shared" si="0"/>
         <v>46327</v>
@@ -4622,7 +4632,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f t="shared" si="0"/>
         <v>46357</v>
@@ -4641,7 +4651,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -4657,7 +4667,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -4673,7 +4683,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="41"/>
       <c r="B159" s="15"/>
       <c r="C159" s="42"/>
@@ -4704,10 +4714,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4730,28 +4740,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -4764,7 +4774,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4793,7 +4803,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>137.21199999999999</v>
       </c>
@@ -4817,17 +4827,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4848,7 +4858,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4875,7 +4885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4901,7 +4911,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4927,7 +4937,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4953,7 +4963,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4979,7 +4989,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5005,7 +5015,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5031,7 +5041,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5057,7 +5067,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5077,7 +5087,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5097,7 +5107,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5117,7 +5127,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5138,7 +5148,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5159,7 +5169,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5180,7 +5190,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5201,7 +5211,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5222,7 +5232,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5243,7 +5253,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5264,7 +5274,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5285,7 +5295,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5306,7 +5316,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5327,7 +5337,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5348,7 +5358,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5369,7 +5379,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5390,7 +5400,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5411,7 +5421,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5432,7 +5442,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5453,7 +5463,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5474,7 +5484,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5495,7 +5505,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5516,7 +5526,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5537,7 +5547,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5546,7 +5556,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5555,7 +5565,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5564,7 +5574,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5573,7 +5583,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5582,7 +5592,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5591,7 +5601,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5600,7 +5610,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5609,7 +5619,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5618,7 +5628,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5627,7 +5637,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5636,7 +5646,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5645,7 +5655,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5654,7 +5664,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5663,7 +5673,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5672,7 +5682,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5681,7 +5691,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5690,7 +5700,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5699,7 +5709,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5708,7 +5718,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5717,7 +5727,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5726,7 +5736,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5735,7 +5745,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5744,7 +5754,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5753,7 +5763,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5762,7 +5772,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5771,7 +5781,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5780,7 +5790,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5789,7 +5799,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5798,7 +5808,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
